--- a/Others/Daily Sales & Allocation/Daily Sales Jan-2021/Others/All Details/Daily Sales Info/Daily Sales 03-01-2021.xlsx
+++ b/Others/Daily Sales & Allocation/Daily Sales Jan-2021/Others/All Details/Daily Sales Info/Daily Sales 03-01-2021.xlsx
@@ -1540,21 +1540,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="14" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1592,6 +1577,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2165,7 +2165,7 @@
       <pane xSplit="15" ySplit="8" topLeftCell="P22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:AT2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2217,160 +2217,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="25.5" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="154"/>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="154"/>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="154"/>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="154"/>
-      <c r="AJ1" s="154"/>
-      <c r="AK1" s="154"/>
-      <c r="AL1" s="154"/>
-      <c r="AM1" s="154"/>
-      <c r="AN1" s="154"/>
-      <c r="AO1" s="154"/>
-      <c r="AP1" s="154"/>
-      <c r="AQ1" s="154"/>
-      <c r="AR1" s="154"/>
-      <c r="AS1" s="154"/>
-      <c r="AT1" s="154"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
+      <c r="AL1" s="149"/>
+      <c r="AM1" s="149"/>
+      <c r="AN1" s="149"/>
+      <c r="AO1" s="149"/>
+      <c r="AP1" s="149"/>
+      <c r="AQ1" s="149"/>
+      <c r="AR1" s="149"/>
+      <c r="AS1" s="149"/>
+      <c r="AT1" s="149"/>
     </row>
     <row r="2" spans="1:56" ht="21" thickBot="1">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="155"/>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="155"/>
-      <c r="AG2" s="155"/>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="155"/>
-      <c r="AJ2" s="155"/>
-      <c r="AK2" s="155"/>
-      <c r="AL2" s="155"/>
-      <c r="AM2" s="155"/>
-      <c r="AN2" s="155"/>
-      <c r="AO2" s="155"/>
-      <c r="AP2" s="155"/>
-      <c r="AQ2" s="155"/>
-      <c r="AR2" s="155"/>
-      <c r="AS2" s="155"/>
-      <c r="AT2" s="155"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="150"/>
+      <c r="Q2" s="150"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="150"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="150"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="150"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="150"/>
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="150"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="150"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="150"/>
+      <c r="AJ2" s="150"/>
+      <c r="AK2" s="150"/>
+      <c r="AL2" s="150"/>
+      <c r="AM2" s="150"/>
+      <c r="AN2" s="150"/>
+      <c r="AO2" s="150"/>
+      <c r="AP2" s="150"/>
+      <c r="AQ2" s="150"/>
+      <c r="AR2" s="150"/>
+      <c r="AS2" s="150"/>
+      <c r="AT2" s="150"/>
     </row>
     <row r="3" spans="1:56" ht="18.75">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="158"/>
-      <c r="S3" s="158"/>
-      <c r="T3" s="158"/>
-      <c r="U3" s="158"/>
-      <c r="V3" s="158"/>
-      <c r="W3" s="158"/>
-      <c r="X3" s="158"/>
-      <c r="Y3" s="158"/>
-      <c r="Z3" s="158"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="158"/>
-      <c r="AC3" s="158"/>
-      <c r="AD3" s="158"/>
-      <c r="AE3" s="158"/>
-      <c r="AF3" s="158"/>
-      <c r="AG3" s="158"/>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="158"/>
-      <c r="AJ3" s="158"/>
-      <c r="AK3" s="158"/>
-      <c r="AL3" s="158"/>
-      <c r="AM3" s="158"/>
-      <c r="AN3" s="158"/>
-      <c r="AO3" s="158"/>
-      <c r="AP3" s="158"/>
-      <c r="AQ3" s="158"/>
-      <c r="AR3" s="158"/>
-      <c r="AS3" s="158"/>
-      <c r="AT3" s="158"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="153"/>
+      <c r="Q3" s="153"/>
+      <c r="R3" s="153"/>
+      <c r="S3" s="153"/>
+      <c r="T3" s="153"/>
+      <c r="U3" s="153"/>
+      <c r="V3" s="153"/>
+      <c r="W3" s="153"/>
+      <c r="X3" s="153"/>
+      <c r="Y3" s="153"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="153"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="153"/>
+      <c r="AE3" s="153"/>
+      <c r="AF3" s="153"/>
+      <c r="AG3" s="153"/>
+      <c r="AH3" s="153"/>
+      <c r="AI3" s="153"/>
+      <c r="AJ3" s="153"/>
+      <c r="AK3" s="153"/>
+      <c r="AL3" s="153"/>
+      <c r="AM3" s="153"/>
+      <c r="AN3" s="153"/>
+      <c r="AO3" s="153"/>
+      <c r="AP3" s="153"/>
+      <c r="AQ3" s="153"/>
+      <c r="AR3" s="153"/>
+      <c r="AS3" s="153"/>
+      <c r="AT3" s="153"/>
     </row>
     <row r="4" spans="1:56" ht="15">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="159"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="146"/>
       <c r="D4" s="146">
         <v>300335</v>
@@ -2399,10 +2399,10 @@
       <c r="L4" s="136">
         <v>0</v>
       </c>
-      <c r="M4" s="159">
+      <c r="M4" s="154">
         <v>1650</v>
       </c>
-      <c r="N4" s="159"/>
+      <c r="N4" s="154"/>
       <c r="O4" s="136">
         <v>1360</v>
       </c>
@@ -2431,24 +2431,24 @@
         <v>745</v>
       </c>
       <c r="AB4" s="66"/>
-      <c r="AC4" s="160"/>
-      <c r="AD4" s="160"/>
-      <c r="AE4" s="160"/>
-      <c r="AF4" s="160"/>
-      <c r="AG4" s="160"/>
-      <c r="AH4" s="160"/>
-      <c r="AI4" s="160"/>
-      <c r="AJ4" s="160"/>
-      <c r="AK4" s="160"/>
-      <c r="AL4" s="160"/>
-      <c r="AM4" s="160"/>
-      <c r="AN4" s="160"/>
-      <c r="AO4" s="160"/>
-      <c r="AP4" s="160"/>
-      <c r="AQ4" s="160"/>
-      <c r="AR4" s="160"/>
-      <c r="AS4" s="160"/>
-      <c r="AT4" s="160"/>
+      <c r="AC4" s="155"/>
+      <c r="AD4" s="155"/>
+      <c r="AE4" s="155"/>
+      <c r="AF4" s="155"/>
+      <c r="AG4" s="155"/>
+      <c r="AH4" s="155"/>
+      <c r="AI4" s="155"/>
+      <c r="AJ4" s="155"/>
+      <c r="AK4" s="155"/>
+      <c r="AL4" s="155"/>
+      <c r="AM4" s="155"/>
+      <c r="AN4" s="155"/>
+      <c r="AO4" s="155"/>
+      <c r="AP4" s="155"/>
+      <c r="AQ4" s="155"/>
+      <c r="AR4" s="155"/>
+      <c r="AS4" s="155"/>
+      <c r="AT4" s="155"/>
       <c r="AV4" s="6"/>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6"/>
@@ -2460,10 +2460,10 @@
       <c r="BD4" s="6"/>
     </row>
     <row r="5" spans="1:56" ht="15">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="154" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="159"/>
+      <c r="B5" s="154"/>
       <c r="C5" s="146"/>
       <c r="D5" s="146">
         <v>736169</v>
@@ -2492,24 +2492,24 @@
       <c r="Z5" s="66"/>
       <c r="AA5" s="66"/>
       <c r="AB5" s="66"/>
-      <c r="AC5" s="160"/>
-      <c r="AD5" s="160"/>
-      <c r="AE5" s="160"/>
-      <c r="AF5" s="160"/>
-      <c r="AG5" s="160"/>
-      <c r="AH5" s="160"/>
-      <c r="AI5" s="160"/>
-      <c r="AJ5" s="160"/>
-      <c r="AK5" s="160"/>
-      <c r="AL5" s="160"/>
-      <c r="AM5" s="160"/>
-      <c r="AN5" s="160"/>
-      <c r="AO5" s="160"/>
-      <c r="AP5" s="160"/>
-      <c r="AQ5" s="160"/>
-      <c r="AR5" s="160"/>
-      <c r="AS5" s="160"/>
-      <c r="AT5" s="160"/>
+      <c r="AC5" s="155"/>
+      <c r="AD5" s="155"/>
+      <c r="AE5" s="155"/>
+      <c r="AF5" s="155"/>
+      <c r="AG5" s="155"/>
+      <c r="AH5" s="155"/>
+      <c r="AI5" s="155"/>
+      <c r="AJ5" s="155"/>
+      <c r="AK5" s="155"/>
+      <c r="AL5" s="155"/>
+      <c r="AM5" s="155"/>
+      <c r="AN5" s="155"/>
+      <c r="AO5" s="155"/>
+      <c r="AP5" s="155"/>
+      <c r="AQ5" s="155"/>
+      <c r="AR5" s="155"/>
+      <c r="AS5" s="155"/>
+      <c r="AT5" s="155"/>
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
@@ -5045,11 +5045,11 @@
       <c r="BD28" s="6"/>
     </row>
     <row r="29" spans="1:56" s="1" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="162"/>
-      <c r="C29" s="162"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
       <c r="D29" s="80">
         <f t="shared" ref="D29:AT29" si="14">SUM(D7:D28)</f>
         <v>210042</v>
@@ -5234,10 +5234,10 @@
       <c r="BD29" s="90"/>
     </row>
     <row r="30" spans="1:56" ht="15.75" thickBot="1">
-      <c r="A30" s="163" t="s">
+      <c r="A30" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="164"/>
+      <c r="B30" s="159"/>
       <c r="C30" s="31"/>
       <c r="D30" s="32">
         <f t="shared" ref="D30:L30" si="16">D4+D5-D29</f>
@@ -5434,44 +5434,44 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="152" t="s">
+      <c r="D32" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="152"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="152"/>
-      <c r="K32" s="152"/>
-      <c r="L32" s="152"/>
-      <c r="M32" s="152"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="147"/>
       <c r="O32" s="22"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
-      <c r="AR32" s="153" t="s">
+      <c r="AR32" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="AS32" s="153"/>
-      <c r="AT32" s="153"/>
+      <c r="AS32" s="148"/>
+      <c r="AT32" s="148"/>
       <c r="AU32" s="65"/>
     </row>
     <row r="33" spans="1:48" ht="15.75">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="149" t="s">
+      <c r="D33" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="162"/>
+      <c r="I33" s="162"/>
+      <c r="J33" s="162"/>
+      <c r="K33" s="162"/>
       <c r="L33" s="116"/>
       <c r="M33" s="116">
         <v>386746.34749999997</v>
@@ -5493,16 +5493,16 @@
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="150" t="s">
+      <c r="D34" s="163" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
+      <c r="E34" s="163"/>
+      <c r="F34" s="163"/>
+      <c r="G34" s="163"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="163"/>
+      <c r="J34" s="163"/>
+      <c r="K34" s="163"/>
       <c r="L34" s="37"/>
       <c r="M34" s="96"/>
       <c r="N34" s="11"/>
@@ -5524,14 +5524,14 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="147"/>
+      <c r="D35" s="160"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="160"/>
       <c r="L35" s="117"/>
       <c r="M35" s="97">
         <f>M33+M34</f>
@@ -5553,16 +5553,16 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="151" t="s">
+      <c r="D36" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="164"/>
       <c r="L36" s="117"/>
       <c r="M36" s="96">
         <v>142698</v>
@@ -5583,16 +5583,16 @@
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="149" t="s">
+      <c r="D37" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
+      <c r="E37" s="162"/>
+      <c r="F37" s="162"/>
+      <c r="G37" s="162"/>
+      <c r="H37" s="162"/>
+      <c r="I37" s="162"/>
+      <c r="J37" s="162"/>
+      <c r="K37" s="162"/>
       <c r="L37" s="100"/>
       <c r="M37" s="98">
         <f>M35-M36</f>
@@ -5607,16 +5607,16 @@
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="147" t="s">
+      <c r="D38" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="147"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="160"/>
+      <c r="K38" s="160"/>
       <c r="L38" s="117"/>
       <c r="M38" s="117">
         <v>244000</v>
@@ -5633,16 +5633,16 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="147" t="s">
+      <c r="D39" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="147"/>
-      <c r="K39" s="147"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="160"/>
+      <c r="K39" s="160"/>
       <c r="L39" s="38"/>
       <c r="M39" s="97">
         <f>M37-M38</f>
@@ -5660,16 +5660,16 @@
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="148" t="s">
+      <c r="D40" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="148"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="148"/>
-      <c r="K40" s="148"/>
+      <c r="E40" s="161"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="161"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="161"/>
       <c r="L40" s="115"/>
       <c r="M40" s="99">
         <f>M36+M39</f>
@@ -6420,6 +6420,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="D38:K38"/>
     <mergeCell ref="D32:M32"/>
     <mergeCell ref="AR32:AT32"/>
     <mergeCell ref="A1:AT1"/>
@@ -6433,14 +6441,6 @@
     <mergeCell ref="AC5:AT5"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="D38:K38"/>
   </mergeCells>
   <conditionalFormatting sqref="AP7:AP28">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
